--- a/downloaded_files/CMPS103_Lecture-35653.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -66,15 +66,6 @@
     <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
   </x:si>
   <x:si>
-    <x:t>1240004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حمدي احمد ابراهيم على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240005</x:t>
   </x:si>
   <x:si>
@@ -93,15 +84,6 @@
     <x:t>ِAhmed Taha  Ahmed Taha Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>4230141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود فريد على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mahmoud Fared Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230164</x:t>
   </x:si>
   <x:si>
@@ -120,15 +102,6 @@
     <x:t>ANTON</x:t>
   </x:si>
   <x:si>
-    <x:t>1210214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم محمد عبد السلام لطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230178</x:t>
   </x:si>
   <x:si>
@@ -261,15 +234,6 @@
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
   </x:si>
   <x:si>
-    <x:t>1210251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240334</x:t>
   </x:si>
   <x:si>
@@ -306,15 +270,6 @@
     <x:t>Omar EL-syed Mohammed EL-kholy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ehab</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220187</x:t>
   </x:si>
   <x:si>
@@ -396,15 +351,6 @@
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو هاني حسين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed amr hany hussein sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240367</x:t>
   </x:si>
   <x:si>
@@ -486,6 +432,15 @@
     <x:t>Yasien Ahmed Samy Serry</x:t>
   </x:si>
   <x:si>
+    <x:t>1240167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240393</x:t>
   </x:si>
   <x:si>
@@ -520,12 +475,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef sayed bedier ahmed amin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد بدر الدين حسن</x:t>
   </x:si>
   <x:si>
     <x:t>1240175</x:t>
@@ -650,7 +599,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -950,7 +899,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1103,7 +1052,7 @@
       </x:c>
       <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45907.681483912</x:v>
+        <x:v>45927.5066766551</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1167,7 +1116,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6402728009</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1199,7 +1148,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45907.6730760764</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1231,7 +1180,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6730760764</x:v>
+        <x:v>45909.6599895486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1263,7 +1212,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4188322917</x:v>
+        <x:v>45907.4200304745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1295,7 +1244,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.6599895486</x:v>
+        <x:v>45912.2682591088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1327,7 +1276,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200304745</x:v>
+        <x:v>45907.4199964931</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1359,7 +1308,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6652719907</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1391,7 +1340,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.2682591088</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1423,7 +1372,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199964931</x:v>
+        <x:v>45907.4186757755</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1455,7 +1404,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1483,11 +1432,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1510,16 +1457,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4186757755</x:v>
+        <x:v>45912.6381538542</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1542,16 +1489,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1574,14 +1521,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1613,7 +1562,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6381538542</x:v>
+        <x:v>45907.6734728356</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1645,7 +1594,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1677,7 +1626,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1709,7 +1658,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6734728356</x:v>
+        <x:v>45907.665881331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1741,7 +1690,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1773,7 +1722,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1805,7 +1754,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.665881331</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1837,7 +1786,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1869,7 +1818,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45907.6671356829</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1901,7 +1850,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1933,7 +1882,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1965,7 +1914,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1997,7 +1946,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6671356829</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2029,7 +1978,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.6413434028</x:v>
+        <x:v>45907.6738177431</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2061,7 +2010,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45906.8758284722</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2093,7 +2042,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2125,7 +2074,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2157,7 +2106,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2189,7 +2138,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6738177431</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2221,7 +2170,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2253,7 +2202,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2285,7 +2234,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2317,7 +2266,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2349,7 +2298,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2381,7 +2330,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2413,7 +2362,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2445,7 +2394,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2477,7 +2426,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45927.5011391204</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2509,7 +2458,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2541,7 +2490,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45909.4350654282</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2573,7 +2522,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2605,7 +2554,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2637,7 +2586,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2654,196 +2603,6 @@
       <x:c r="R52" s="2" t="s"/>
       <x:c r="S52" s="2" t="s"/>
       <x:c r="T52" s="2" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:20">
-      <x:c r="A53" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="E53" s="3">
-        <x:v>45907.6796116898</x:v>
-      </x:c>
-      <x:c r="F53" s="2" t="s"/>
-      <x:c r="G53" s="2" t="s"/>
-      <x:c r="H53" s="2" t="s"/>
-      <x:c r="I53" s="2" t="s"/>
-      <x:c r="J53" s="2" t="s"/>
-      <x:c r="K53" s="2" t="s"/>
-      <x:c r="L53" s="2" t="s"/>
-      <x:c r="M53" s="2" t="s"/>
-      <x:c r="N53" s="2" t="s"/>
-      <x:c r="O53" s="2" t="s"/>
-      <x:c r="P53" s="2" t="s"/>
-      <x:c r="Q53" s="2" t="s"/>
-      <x:c r="R53" s="2" t="s"/>
-      <x:c r="S53" s="2" t="s"/>
-      <x:c r="T53" s="2" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:20">
-      <x:c r="A54" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B54" s="2" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C54" s="2" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D54" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="E54" s="3">
-        <x:v>45909.4350654282</x:v>
-      </x:c>
-      <x:c r="F54" s="2" t="s"/>
-      <x:c r="G54" s="2" t="s"/>
-      <x:c r="H54" s="2" t="s"/>
-      <x:c r="I54" s="2" t="s"/>
-      <x:c r="J54" s="2" t="s"/>
-      <x:c r="K54" s="2" t="s"/>
-      <x:c r="L54" s="2" t="s"/>
-      <x:c r="M54" s="2" t="s"/>
-      <x:c r="N54" s="2" t="s"/>
-      <x:c r="O54" s="2" t="s"/>
-      <x:c r="P54" s="2" t="s"/>
-      <x:c r="Q54" s="2" t="s"/>
-      <x:c r="R54" s="2" t="s"/>
-      <x:c r="S54" s="2" t="s"/>
-      <x:c r="T54" s="2" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:20">
-      <x:c r="A55" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B55" s="2" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C55" s="2" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="D55" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="E55" s="3">
-        <x:v>45912.2767853356</x:v>
-      </x:c>
-      <x:c r="F55" s="2" t="s"/>
-      <x:c r="G55" s="2" t="s"/>
-      <x:c r="H55" s="2" t="s"/>
-      <x:c r="I55" s="2" t="s"/>
-      <x:c r="J55" s="2" t="s"/>
-      <x:c r="K55" s="2" t="s"/>
-      <x:c r="L55" s="2" t="s"/>
-      <x:c r="M55" s="2" t="s"/>
-      <x:c r="N55" s="2" t="s"/>
-      <x:c r="O55" s="2" t="s"/>
-      <x:c r="P55" s="2" t="s"/>
-      <x:c r="Q55" s="2" t="s"/>
-      <x:c r="R55" s="2" t="s"/>
-      <x:c r="S55" s="2" t="s"/>
-      <x:c r="T55" s="2" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:20">
-      <x:c r="A56" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="E56" s="3">
-        <x:v>45906.6669528935</x:v>
-      </x:c>
-      <x:c r="F56" s="2" t="s"/>
-      <x:c r="G56" s="2" t="s"/>
-      <x:c r="H56" s="2" t="s"/>
-      <x:c r="I56" s="2" t="s"/>
-      <x:c r="J56" s="2" t="s"/>
-      <x:c r="K56" s="2" t="s"/>
-      <x:c r="L56" s="2" t="s"/>
-      <x:c r="M56" s="2" t="s"/>
-      <x:c r="N56" s="2" t="s"/>
-      <x:c r="O56" s="2" t="s"/>
-      <x:c r="P56" s="2" t="s"/>
-      <x:c r="Q56" s="2" t="s"/>
-      <x:c r="R56" s="2" t="s"/>
-      <x:c r="S56" s="2" t="s"/>
-      <x:c r="T56" s="2" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:20">
-      <x:c r="A57" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D57" s="2" t="s"/>
-      <x:c r="E57" s="3">
-        <x:v>45909.7324891204</x:v>
-      </x:c>
-      <x:c r="F57" s="2" t="s"/>
-      <x:c r="G57" s="2" t="s"/>
-      <x:c r="H57" s="2" t="s"/>
-      <x:c r="I57" s="2" t="s"/>
-      <x:c r="J57" s="2" t="s"/>
-      <x:c r="K57" s="2" t="s"/>
-      <x:c r="L57" s="2" t="s"/>
-      <x:c r="M57" s="2" t="s"/>
-      <x:c r="N57" s="2" t="s"/>
-      <x:c r="O57" s="2" t="s"/>
-      <x:c r="P57" s="2" t="s"/>
-      <x:c r="Q57" s="2" t="s"/>
-      <x:c r="R57" s="2" t="s"/>
-      <x:c r="S57" s="2" t="s"/>
-      <x:c r="T57" s="2" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:20">
-      <x:c r="A58" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C58" s="2" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E58" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F58" s="2" t="s"/>
-      <x:c r="G58" s="2" t="s"/>
-      <x:c r="H58" s="2" t="s"/>
-      <x:c r="I58" s="2" t="s"/>
-      <x:c r="J58" s="2" t="s"/>
-      <x:c r="K58" s="2" t="s"/>
-      <x:c r="L58" s="2" t="s"/>
-      <x:c r="M58" s="2" t="s"/>
-      <x:c r="N58" s="2" t="s"/>
-      <x:c r="O58" s="2" t="s"/>
-      <x:c r="P58" s="2" t="s"/>
-      <x:c r="Q58" s="2" t="s"/>
-      <x:c r="R58" s="2" t="s"/>
-      <x:c r="S58" s="2" t="s"/>
-      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35653.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -189,15 +189,6 @@
     <x:t>Dai Khaled Mohamed Abdelsalam Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240178</x:t>
   </x:si>
   <x:si>
@@ -306,6 +297,15 @@
     <x:t>amr sabry abdullatif ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240124</x:t>
   </x:si>
   <x:si>
@@ -450,15 +450,6 @@
     <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240173</x:t>
   </x:si>
   <x:si>
@@ -466,15 +457,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Gomaa Abdelghany Aboibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف سيد بدير احمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef sayed bedier ahmed amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240175</x:t>
@@ -599,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -899,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1562,7 +1544,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6734728356</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1594,7 +1576,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1626,7 +1608,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45907.665881331</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1658,7 +1640,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.665881331</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1690,7 +1672,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1722,7 +1704,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1754,7 +1736,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1786,7 +1768,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.6671356829</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1818,7 +1800,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6671356829</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1850,7 +1832,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1882,7 +1864,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1914,7 +1896,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1946,7 +1928,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2490,7 +2472,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4350654282</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2522,7 +2504,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.2767853356</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2539,70 +2521,6 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20">
-      <x:c r="A51" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="E51" s="3">
-        <x:v>45906.6669528935</x:v>
-      </x:c>
-      <x:c r="F51" s="2" t="s"/>
-      <x:c r="G51" s="2" t="s"/>
-      <x:c r="H51" s="2" t="s"/>
-      <x:c r="I51" s="2" t="s"/>
-      <x:c r="J51" s="2" t="s"/>
-      <x:c r="K51" s="2" t="s"/>
-      <x:c r="L51" s="2" t="s"/>
-      <x:c r="M51" s="2" t="s"/>
-      <x:c r="N51" s="2" t="s"/>
-      <x:c r="O51" s="2" t="s"/>
-      <x:c r="P51" s="2" t="s"/>
-      <x:c r="Q51" s="2" t="s"/>
-      <x:c r="R51" s="2" t="s"/>
-      <x:c r="S51" s="2" t="s"/>
-      <x:c r="T51" s="2" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:20">
-      <x:c r="A52" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="E52" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s"/>
-      <x:c r="G52" s="2" t="s"/>
-      <x:c r="H52" s="2" t="s"/>
-      <x:c r="I52" s="2" t="s"/>
-      <x:c r="J52" s="2" t="s"/>
-      <x:c r="K52" s="2" t="s"/>
-      <x:c r="L52" s="2" t="s"/>
-      <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="2" t="s"/>
-      <x:c r="O52" s="2" t="s"/>
-      <x:c r="P52" s="2" t="s"/>
-      <x:c r="Q52" s="2" t="s"/>
-      <x:c r="R52" s="2" t="s"/>
-      <x:c r="S52" s="2" t="s"/>
-      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35653.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -162,6 +162,15 @@
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
   </x:si>
   <x:si>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240073</x:t>
   </x:si>
   <x:si>
@@ -286,6 +295,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid El Taher Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240116</x:t>
@@ -581,7 +599,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -881,7 +899,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1448,7 +1466,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6381538542</x:v>
+        <x:v>45928.476215162</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1480,7 +1498,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45912.6381538542</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1512,7 +1530,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1544,7 +1562,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1576,7 +1594,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1608,7 +1626,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665881331</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1640,7 +1658,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.665881331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1672,7 +1690,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1704,7 +1722,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1736,7 +1754,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1768,7 +1786,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6671356829</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1800,7 +1818,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.6671356829</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1832,7 +1850,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1864,7 +1882,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1896,7 +1914,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1928,7 +1946,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45928.4112412847</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1960,7 +1978,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6738177431</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1992,7 +2010,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2024,7 +2042,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45907.6738177431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2056,7 +2074,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45906.8758284722</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2088,7 +2106,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2120,7 +2138,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2152,7 +2170,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2184,7 +2202,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2216,7 +2234,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2248,7 +2266,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2280,7 +2298,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2312,7 +2330,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2344,7 +2362,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2376,7 +2394,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2408,7 +2426,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45927.5011391204</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2440,7 +2458,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6796116898</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2472,7 +2490,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.2767853356</x:v>
+        <x:v>45927.5011391204</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2504,7 +2522,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2521,6 +2539,70 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45912.2767853356</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35653.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -331,15 +331,6 @@
   </x:si>
   <x:si>
     <x:t>Kirolos Ashraf Ishak Fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1230238</x:t>
@@ -599,7 +590,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -899,7 +890,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2074,7 +2065,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2106,7 +2097,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2138,7 +2129,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2170,7 +2161,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2202,7 +2193,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2234,7 +2225,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2266,7 +2257,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2298,7 +2289,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2330,7 +2321,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2362,7 +2353,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2394,7 +2385,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2426,7 +2417,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2458,7 +2449,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45927.5011391204</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2490,7 +2481,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.5011391204</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2522,7 +2513,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6796116898</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2554,7 +2545,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.2767853356</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2571,38 +2562,6 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:20">
-      <x:c r="A52" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="E52" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s"/>
-      <x:c r="G52" s="2" t="s"/>
-      <x:c r="H52" s="2" t="s"/>
-      <x:c r="I52" s="2" t="s"/>
-      <x:c r="J52" s="2" t="s"/>
-      <x:c r="K52" s="2" t="s"/>
-      <x:c r="L52" s="2" t="s"/>
-      <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="2" t="s"/>
-      <x:c r="O52" s="2" t="s"/>
-      <x:c r="P52" s="2" t="s"/>
-      <x:c r="Q52" s="2" t="s"/>
-      <x:c r="R52" s="2" t="s"/>
-      <x:c r="S52" s="2" t="s"/>
-      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35653.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أحمد مروان كامل عبد العزيز محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
   </x:si>
   <x:si>
     <x:t>1230005</x:t>
@@ -590,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -890,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T51"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -981,7 +972,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6649607986</x:v>
+        <x:v>45907.4199399306</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1009,11 +1000,9 @@
       <x:c r="C3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="3">
-        <x:v>45907.4199399306</x:v>
+        <x:v>45927.5066766551</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1036,14 +1025,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45927.5066766551</x:v>
+        <x:v>45907.4160199074</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1075,7 +1066,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4160199074</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1107,7 +1098,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45907.6730760764</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1139,7 +1130,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6730760764</x:v>
+        <x:v>45909.6599895486</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1171,7 +1162,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6599895486</x:v>
+        <x:v>45907.4200304745</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1203,7 +1194,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200304745</x:v>
+        <x:v>45912.2682591088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1235,7 +1226,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.2682591088</x:v>
+        <x:v>45907.4199964931</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1267,7 +1258,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4199964931</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1299,7 +1290,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1331,7 +1322,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.4186757755</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1363,7 +1354,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4186757755</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1391,11 +1382,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1418,14 +1407,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45928.476215162</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.476215162</x:v>
+        <x:v>45912.6381538542</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1489,7 +1480,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6381538542</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1521,7 +1512,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1553,7 +1544,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1585,7 +1576,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1617,7 +1608,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45907.665881331</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1649,7 +1640,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.665881331</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1681,7 +1672,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1713,7 +1704,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1745,7 +1736,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1777,7 +1768,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.6671356829</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1809,7 +1800,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6671356829</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1841,7 +1832,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1873,7 +1864,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1905,7 +1896,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45928.4112412847</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1937,7 +1928,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45928.4112412847</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1969,7 +1960,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2001,7 +1992,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45907.6738177431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2033,7 +2024,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6738177431</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2065,7 +2056,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2097,7 +2088,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2129,7 +2120,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2161,7 +2152,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2193,7 +2184,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2225,7 +2216,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2257,7 +2248,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2289,7 +2280,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2321,7 +2312,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2353,7 +2344,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2385,7 +2376,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2417,7 +2408,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45927.5011391204</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2449,7 +2440,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.5011391204</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2481,7 +2472,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6796116898</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2513,7 +2504,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.2767853356</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2530,38 +2521,6 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20">
-      <x:c r="A51" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="E51" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F51" s="2" t="s"/>
-      <x:c r="G51" s="2" t="s"/>
-      <x:c r="H51" s="2" t="s"/>
-      <x:c r="I51" s="2" t="s"/>
-      <x:c r="J51" s="2" t="s"/>
-      <x:c r="K51" s="2" t="s"/>
-      <x:c r="L51" s="2" t="s"/>
-      <x:c r="M51" s="2" t="s"/>
-      <x:c r="N51" s="2" t="s"/>
-      <x:c r="O51" s="2" t="s"/>
-      <x:c r="P51" s="2" t="s"/>
-      <x:c r="Q51" s="2" t="s"/>
-      <x:c r="R51" s="2" t="s"/>
-      <x:c r="S51" s="2" t="s"/>
-      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Lecture-35653.xlsx
+++ b/downloaded_files/CMPS103_Lecture-35653.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -151,15 +151,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240073</x:t>
@@ -581,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -881,7 +872,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1416,7 +1407,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.476215162</x:v>
+        <x:v>45912.6381538542</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1448,7 +1439,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6381538542</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1480,7 +1471,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1512,7 +1503,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1544,7 +1535,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1576,7 +1567,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45907.665881331</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1608,7 +1599,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665881331</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1640,7 +1631,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1672,7 +1663,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1704,7 +1695,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1736,7 +1727,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.6671356829</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1768,7 +1759,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6671356829</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1800,7 +1791,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1832,7 +1823,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1864,7 +1855,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45928.4112412847</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1896,7 +1887,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45928.4112412847</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1928,7 +1919,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1960,7 +1951,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45907.6738177431</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1992,7 +1983,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6738177431</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2024,7 +2015,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2056,7 +2047,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2088,7 +2079,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2120,7 +2111,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2152,7 +2143,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2184,7 +2175,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2216,7 +2207,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2248,7 +2239,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2280,7 +2271,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2312,7 +2303,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2344,7 +2335,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2376,7 +2367,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45927.5011391204</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2408,7 +2399,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45927.5011391204</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2440,7 +2431,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6796116898</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2472,7 +2463,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.2767853356</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2489,38 +2480,6 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
